--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3614120.881191773</v>
+        <v>3722609.459904023</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498523</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7616934.106844988</v>
+        <v>7586268.040551851</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>216.6493085946363</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>188.4398690413529</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -719,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>120.3332554667404</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,13 +879,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>36.54831719605515</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>172.2093932926068</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,10 +913,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>236.6022118300098</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1057,7 +1059,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1069,10 +1071,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>89.79920329919402</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>43.30112502764958</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>150.4956237421362</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>238.7813195717449</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>26.80771286579181</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>75.76346362764653</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1534,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>13.7258286485377</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>138.9514371171562</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>73.97774435452114</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2008,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>114.8498234654383</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2144,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2251,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>102.1557845699818</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2609,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>83.06560892428213</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>75.00788511618082</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2852,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308916</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652587</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808158</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>173.6813593090546</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972045</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969975</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3083,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898977</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308898</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652589</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808203</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>156.741638509605</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972045</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317884</v>
+        <v>186.5877792298978</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445514</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600552</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898977</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>5.421623586788822</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002279</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652589</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808203</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>156.741638509605</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972045</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317884</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445514</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600552</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898977</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652589</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808203</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>156.741638509605</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352471</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972045</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317884</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445514</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>214.7441689014855</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600552</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898977</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261712</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652589</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808203</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>156.741638509605</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317884</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445514</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>216.7094028874707</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600552</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444142</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4141,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>79.75167225698492</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4192,10 +4194,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>148.2735510725095</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1852.996172847235</v>
+        <v>652.5759934195833</v>
       </c>
       <c r="C2" t="n">
-        <v>1852.996172847235</v>
+        <v>652.5759934195833</v>
       </c>
       <c r="D2" t="n">
-        <v>1634.158487398107</v>
+        <v>652.5759934195833</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>652.5759934195833</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>241.5900886299757</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4331,10 +4333,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190806</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V2" t="n">
-        <v>1852.996172847235</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W2" t="n">
-        <v>1852.996172847235</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="X2" t="n">
-        <v>1852.996172847235</v>
+        <v>1042.715325395395</v>
       </c>
       <c r="Y2" t="n">
-        <v>1852.996172847235</v>
+        <v>652.5759934195833</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>590.20497511435</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458217</v>
+        <v>815.114548125109</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>1178.376567084329</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>172.7955294637004</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="C4" t="n">
-        <v>51.24678656800311</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="D4" t="n">
-        <v>51.24678656800311</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
         <v>51.24678656800311</v>
@@ -4510,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U4" t="n">
-        <v>1347.327782578335</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="V4" t="n">
-        <v>1092.643294372448</v>
+        <v>793.4311400478917</v>
       </c>
       <c r="W4" t="n">
-        <v>803.2261243354876</v>
+        <v>756.5136479306643</v>
       </c>
       <c r="X4" t="n">
-        <v>575.2365734374703</v>
+        <v>528.524097032647</v>
       </c>
       <c r="Y4" t="n">
-        <v>354.4439942939401</v>
+        <v>528.524097032647</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2057.32755894284</v>
+        <v>1936.747355174407</v>
       </c>
       <c r="C5" t="n">
-        <v>1688.365042002428</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="D5" t="n">
-        <v>1330.099343395678</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974335</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4601,16 +4603,16 @@
         <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056584</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>2231.276441056584</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X5" t="n">
-        <v>2231.276441056584</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="Y5" t="n">
-        <v>2231.276441056584</v>
+        <v>2323.347195238529</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4643,28 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495377</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508758</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N6" t="n">
-        <v>1468.399656105703</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O6" t="n">
-        <v>1800.470091281865</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>682.9724752679349</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C7" t="n">
-        <v>514.036292340028</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D7" t="n">
-        <v>514.036292340028</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T7" t="n">
-        <v>1443.156447631297</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U7" t="n">
-        <v>1154.038110135135</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="V7" t="n">
-        <v>1154.038110135135</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="W7" t="n">
-        <v>864.6209400981746</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="X7" t="n">
-        <v>864.6209400981746</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="Y7" t="n">
-        <v>864.6209400981746</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.939223126803</v>
+        <v>1465.289389295559</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1096.326872355147</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520488</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W8" t="n">
-        <v>2768.144153427816</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="X8" t="n">
-        <v>2394.678395166736</v>
+        <v>1855.42872127137</v>
       </c>
       <c r="Y8" t="n">
-        <v>2004.539063190924</v>
+        <v>1465.289389295559</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>630.8037095364738</v>
+        <v>376.3550174069661</v>
       </c>
       <c r="C10" t="n">
-        <v>461.8675266085669</v>
+        <v>376.3550174069661</v>
       </c>
       <c r="D10" t="n">
-        <v>311.7508871962312</v>
+        <v>226.2383779946304</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>78.32528441223727</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610489</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V10" t="n">
-        <v>1224.739181610489</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="W10" t="n">
-        <v>935.322011573528</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="X10" t="n">
-        <v>707.3324606755107</v>
+        <v>597.1475965504962</v>
       </c>
       <c r="Y10" t="n">
-        <v>630.8037095364738</v>
+        <v>376.3550174069661</v>
       </c>
     </row>
     <row r="11">
@@ -5027,34 +5029,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5063,28 +5065,28 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.843151638089</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C13" t="n">
-        <v>572.9069687101821</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D13" t="n">
-        <v>422.7903292978464</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E13" t="n">
-        <v>274.8772357154533</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>274.8772357154533</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>107.6811364303332</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1360.39208240939</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611859</v>
+        <v>1132.402531511373</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683287</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,40 +5290,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1319.459739407056</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5507,58 +5509,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L18" t="n">
-        <v>710.248605371872</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="M18" t="n">
-        <v>1307.627092998424</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,22 +5770,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>417.9651836029407</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>913.2907898186995</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898186995</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373306</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,25 +5977,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6002,7 +6004,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6075,19 +6077,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2443.97263649114</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>197.0043242297717</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>197.0043242297717</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>197.0043242297717</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="26">
@@ -6212,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>448.1846595309957</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>943.5102657467545</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1540.888753373306</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373306</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O27" t="n">
         <v>2092.798483612593</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6415,19 +6417,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6479,10 +6481,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6500,10 +6502,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,28 +6542,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>417.9651836029407</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>913.2907898186995</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M30" t="n">
-        <v>913.2907898186995</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373306</v>
+        <v>1318.793114229131</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612593</v>
+        <v>1870.702844468418</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2294.325993963486</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2527.587654338369</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C31" t="n">
-        <v>782.551295565682</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150025</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942657</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580116</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>2021.626829013775</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1732.551602357973</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1477.867114152086</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1188.449944115125</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>960.4603932171079</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="32">
@@ -6686,28 +6688,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
@@ -6719,28 +6721,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>949.9304447718132</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718132</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O33" t="n">
         <v>2129.438138565707</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2978.493192213311</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C34" t="n">
-        <v>2834.08695624706</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D34" t="n">
-        <v>2708.50026379638</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>2585.117117175643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>2462.757116639391</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>2320.090964315927</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>2202.909080119781</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>2145.352323729351</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>2249.630143176794</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2535.361206719452</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>2949.801601912512</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3395.853105660666</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3837.304778337793</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4230.875860063898</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4547.593116654575</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4648.317395612652</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4489.992508229213</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>4294.92099021381</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>4030.375710519664</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>3800.221169275434</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W34" t="n">
-        <v>3535.333946200129</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X34" t="n">
-        <v>3331.874342263768</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y34" t="n">
-        <v>3135.611710081894</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6923,28 +6925,28 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355936</v>
@@ -6968,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>2715.159942084666</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>3210.485548300425</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M36" t="n">
-        <v>3807.864035926977</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N36" t="n">
-        <v>4267.210002903525</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O36" t="n">
-        <v>4267.210002903525</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
-        <v>4690.833152398593</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319316</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656809</v>
+        <v>564.5188827892237</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150014</v>
+        <v>414.4022433768879</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942644</v>
+        <v>266.4891497944948</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580103</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345478</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384021</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="38">
@@ -7160,16 +7162,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111716</v>
@@ -7181,19 +7183,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7257,19 +7259,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>716.6687843969303</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319331</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656824</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150029</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942659</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580117</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345478</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384021</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838287</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518752</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582391</v>
+        <v>1182.055381897053</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400517</v>
+        <v>961.2628027535234</v>
       </c>
     </row>
     <row r="41">
@@ -7406,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7491,25 +7493,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319316</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656809</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150029</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942659</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580117</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345478</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384021</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>2009.423761029278</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1720.006590992317</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168617</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362691</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479719</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332388</v>
@@ -7661,37 +7663,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
@@ -7731,19 +7733,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1963.765362972544</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2515.675093211831</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>868.6673633290468</v>
+        <v>870.3164745246296</v>
       </c>
       <c r="C46" t="n">
-        <v>699.7311804011399</v>
+        <v>701.3802915967227</v>
       </c>
       <c r="D46" t="n">
-        <v>549.6145409888042</v>
+        <v>551.263652184387</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888042</v>
+        <v>403.3505586019938</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>256.4606111040835</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1788.515128237794</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1499.097958200834</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X46" t="n">
-        <v>1271.108407302816</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y46" t="n">
-        <v>1050.315828159286</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>168.7434581780645</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>224.3355197601778</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>186.5911984019042</v>
       </c>
       <c r="P6" t="n">
-        <v>193.3273467878351</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>54.95314511566539</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23422,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>126.5688841976862</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>147.5715612194348</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>151.731911034516</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>137.2878198583897</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>38.13892827624207</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>62.35543909864911</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24655,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>211.5151132204102</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>43.72409101823362</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25081,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>65.54986409393018</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>139.9994244361424</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25606,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>10.96548648755163</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>9.000252501566422</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26029,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>85.77246603528393</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>103.8640922513185</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>662932.8555415501</v>
+        <v>668874.7830426209</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>651816.7194021281</v>
+        <v>651816.7194021282</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>651816.7194021281</v>
+        <v>651816.7194021282</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>651816.7194021281</v>
+        <v>651816.7194021282</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>662932.8555415501</v>
+        <v>651816.7194021282</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>662932.8555415501</v>
+        <v>651816.7194021282</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>662932.8555415501</v>
+        <v>651816.7194021282</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>662932.8555415501</v>
+        <v>651816.7194021282</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>662932.8555415501</v>
+        <v>651816.7194021282</v>
       </c>
     </row>
     <row r="16">
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710694</v>
+        <v>779989.6813710696</v>
       </c>
       <c r="C2" t="n">
         <v>779989.6813710695</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710695</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055056</v>
+        <v>766789.269705506</v>
       </c>
       <c r="F2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="G2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.269705506</v>
       </c>
       <c r="H2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="I2" t="n">
-        <v>766789.2697055053</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="J2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.269705506</v>
       </c>
       <c r="K2" t="n">
-        <v>779989.6813710696</v>
+        <v>766789.269705506</v>
       </c>
       <c r="L2" t="n">
-        <v>779989.6813710692</v>
+        <v>766789.269705506</v>
       </c>
       <c r="M2" t="n">
-        <v>779989.6813710693</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="N2" t="n">
-        <v>779989.6813710694</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="O2" t="n">
-        <v>779989.6813710692</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="P2" t="n">
         <v>766789.2697055059</v>
@@ -26369,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099828</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363172</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819071</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26423,43 @@
         <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
-        <v>86084.45926805865</v>
+        <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707323</v>
+        <v>6897.424496707335</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707304</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707419</v>
       </c>
       <c r="H4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707331</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707328</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="K4" t="n">
-        <v>14888.28375980081</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="L4" t="n">
-        <v>14888.28375980078</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="M4" t="n">
-        <v>14888.2837598008</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="N4" t="n">
-        <v>14888.2837598008</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="O4" t="n">
-        <v>14888.28375980077</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707336</v>
+        <v>6897.424496707361</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26475,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-559609.6014763199</v>
+        <v>-559609.6014763197</v>
       </c>
       <c r="C6" t="n">
         <v>555142.1820995999</v>
       </c>
       <c r="D6" t="n">
-        <v>393344.1411012791</v>
+        <v>555142.1820995999</v>
       </c>
       <c r="E6" t="n">
-        <v>333356.8535775357</v>
+        <v>151283.8737603457</v>
       </c>
       <c r="F6" t="n">
+        <v>658769.3153848915</v>
+      </c>
+      <c r="G6" t="n">
         <v>658769.3153848916</v>
       </c>
-      <c r="G6" t="n">
-        <v>658769.3153848913</v>
-      </c>
       <c r="H6" t="n">
-        <v>658769.3153848913</v>
+        <v>658769.3153848915</v>
       </c>
       <c r="I6" t="n">
-        <v>658769.315384891</v>
+        <v>658769.3153848915</v>
       </c>
       <c r="J6" t="n">
         <v>491164.1375749087</v>
       </c>
       <c r="K6" t="n">
-        <v>642509.5637637217</v>
+        <v>658769.3153848916</v>
       </c>
       <c r="L6" t="n">
-        <v>613643.3117491623</v>
+        <v>658769.3153848916</v>
       </c>
       <c r="M6" t="n">
-        <v>576882.2538218412</v>
+        <v>526162.0216559644</v>
       </c>
       <c r="N6" t="n">
-        <v>661937.2817573532</v>
+        <v>658769.3153848915</v>
       </c>
       <c r="O6" t="n">
-        <v>661937.2817573531</v>
+        <v>658769.3153848912</v>
       </c>
       <c r="P6" t="n">
         <v>658769.3153848915</v>
@@ -26707,22 +26709,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26738,10 +26740,10 @@
         <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
+        <v>934.0648921175392</v>
+      </c>
+      <c r="D3" t="n">
         <v>934.0648921175391</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,34 +26792,34 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26831,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26917,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>138.0337330260467</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>223.1078337316011</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>46.91356563188748</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,13 +27548,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27597,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>249.9746811405358</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>210.5244483708738</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,7 +27675,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>149.6357268260438</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27789,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,22 +27827,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>130.9494926980179</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>182.4085303613876</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>204.1874178785467</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,13 +27909,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>110.4596491456681</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>118.6133351571394</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28071,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>142.8211897244483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28570,7 +28572,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31279,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31847,16 +31849,16 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>213.1625787491746</v>
@@ -31865,13 +31867,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,13 +32068,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32084,31 +32086,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>574.6535388222617</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>610.0546826043645</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>548.8125296967492</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>314.1059622342723</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>407.2177391203972</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32578,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32795,31 +32797,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>213.1625787491746</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33026,7 +33028,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>344.6306853939237</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
@@ -33035,10 +33037,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>558.3177848342784</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214699</v>
@@ -33260,16 +33262,16 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>314.1059622342723</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
@@ -33281,10 +33283,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>171.4104471179097</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33500,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>514.8598010172136</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>309.9424824173362</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214699</v>
@@ -33652,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33667,7 +33669,7 @@
         <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460029</v>
@@ -33740,22 +33742,22 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>279.2419622547056</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>595.3275373121701</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33977,22 +33979,22 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>279.2419622547056</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>245.8118639189577</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34451,34 +34453,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>134.7284881171895</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,7 +34713,7 @@
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949729</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34775,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>355.3309544215493</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>522.015880398028</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820405</v>
@@ -34790,16 +34792,16 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>522.0158803980272</v>
       </c>
       <c r="P6" t="n">
-        <v>443.0068759113673</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>446.1502447085393</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35498,19 +35500,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>73.18080466315305</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35732,22 +35734,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>432.0572943778172</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>471.5003028244903</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>414.838122282419</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462684</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>176.2645232599133</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>265.0837051983789</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>73.18080466315305</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36601,7 +36603,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193518</v>
@@ -36674,7 +36676,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>206.7892464195648</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
@@ -36683,10 +36685,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>426.9760727509451</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071396</v>
@@ -36908,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>176.2645232599133</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
@@ -36929,10 +36931,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>25.73094315394571</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37087,7 +37089,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902405</v>
@@ -37148,19 +37150,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>376.3054212373395</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>167.3462379728918</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071396</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.331130754993</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986646</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37315,7 +37317,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O35" t="n">
         <v>696.4886512243162</v>
@@ -37388,22 +37390,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>140.6875824748315</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9858252288368</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.331130754993</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986646</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>140.6875824748315</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O39" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.331130754993</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>445.910780481947</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986646</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>103.6778299969394</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38101,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0.7540807028592577</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3722609.459904023</v>
+        <v>3718472.302653871</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12383593.48435851</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>102.0263762840453</v>
       </c>
       <c r="G2" t="n">
-        <v>188.4398690413529</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -828,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -879,13 +879,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>36.54831719605515</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1.781160222249666</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>215.353270062414</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>236.6022118300098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>50.98074812542835</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>43.30112502764958</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1138,10 +1138,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>150.4956237421362</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,10 +1150,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>201.3825366600137</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>26.80771286579181</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>92.06207933418428</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444153</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,10 +1587,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>240.0299798479753</v>
       </c>
       <c r="W13" t="n">
-        <v>138.9514371171562</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,10 +1824,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>251.5502284016995</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>114.8498234654383</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>104.4262124629293</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>75.00788511618082</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>51.3656974031032</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>173.6813593090546</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>186.5877792298978</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>5.421623586788822</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,13 +3720,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>214.7441689014855</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>239.7247859410136</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>216.7094028874707</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>79.75167225698492</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0109307051779</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>652.5759934195833</v>
+        <v>1005.344648689697</v>
       </c>
       <c r="C2" t="n">
-        <v>652.5759934195833</v>
+        <v>636.3821317492857</v>
       </c>
       <c r="D2" t="n">
-        <v>652.5759934195833</v>
+        <v>636.3821317492857</v>
       </c>
       <c r="E2" t="n">
-        <v>652.5759934195833</v>
+        <v>636.3821317492857</v>
       </c>
       <c r="F2" t="n">
-        <v>241.5900886299757</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872914</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4369,13 +4369,13 @@
         <v>1768.949738926589</v>
       </c>
       <c r="W2" t="n">
-        <v>1416.181083656475</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="X2" t="n">
-        <v>1042.715325395395</v>
+        <v>1395.483980665509</v>
       </c>
       <c r="Y2" t="n">
-        <v>652.5759934195833</v>
+        <v>1005.344648689697</v>
       </c>
     </row>
     <row r="3">
@@ -4391,19 +4391,19 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4412,25 +4412,25 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L3" t="n">
-        <v>815.114548125109</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M3" t="n">
-        <v>1178.376567084329</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1565.661695681274</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>346.8756322024072</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C4" t="n">
-        <v>346.8756322024072</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>346.8756322024072</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>346.8756322024072</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
         <v>51.24678656800311</v>
@@ -4488,16 +4488,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4518,22 +4518,22 @@
         <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.233965749941</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1048.115628253779</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>793.4311400478917</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W4" t="n">
-        <v>756.5136479306643</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="X4" t="n">
-        <v>528.524097032647</v>
+        <v>53.04593830764924</v>
       </c>
       <c r="Y4" t="n">
-        <v>528.524097032647</v>
+        <v>51.24678656800311</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1936.747355174407</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="C5" t="n">
-        <v>1567.784838233996</v>
+        <v>757.7992423756293</v>
       </c>
       <c r="D5" t="n">
-        <v>1567.784838233996</v>
+        <v>757.7992423756293</v>
       </c>
       <c r="E5" t="n">
-        <v>1181.996585635751</v>
+        <v>757.7992423756293</v>
       </c>
       <c r="F5" t="n">
-        <v>771.0106808461439</v>
+        <v>346.8133375860218</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>335.1489913507147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400155</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="X5" t="n">
-        <v>2562.339328400155</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="Y5" t="n">
-        <v>2323.347195238529</v>
+        <v>1126.761759316041</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4634,40 +4634,40 @@
         <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>590.20497511435</v>
       </c>
       <c r="L6" t="n">
-        <v>932.4978103100998</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M6" t="n">
-        <v>1295.75982926932</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N6" t="n">
-        <v>1683.044957866265</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4685,7 +4685,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1087.683159487371</v>
+        <v>716.5983551657496</v>
       </c>
       <c r="C7" t="n">
-        <v>918.7469765594642</v>
+        <v>547.6621722378427</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>397.5455328255069</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>249.6324392431138</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>102.7424917452035</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
@@ -4749,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1533.86271359008</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X7" t="n">
-        <v>1490.124203461141</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y7" t="n">
-        <v>1269.331624317611</v>
+        <v>898.2468199959893</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1465.289389295559</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="C8" t="n">
-        <v>1096.326872355147</v>
+        <v>1467.14239792855</v>
       </c>
       <c r="D8" t="n">
-        <v>944.3110907974335</v>
+        <v>1467.14239792855</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>1081.354145330305</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>670.3682405406978</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>254.6634902649866</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
@@ -4807,10 +4807,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4822,7 +4822,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>2228.89447953245</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X8" t="n">
-        <v>1855.42872127137</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y8" t="n">
-        <v>1465.289389295559</v>
+        <v>1836.104914868961</v>
       </c>
     </row>
     <row r="9">
@@ -4877,31 +4877,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>376.3550174069661</v>
+        <v>368.9218676324038</v>
       </c>
       <c r="C10" t="n">
-        <v>376.3550174069661</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D10" t="n">
-        <v>226.2383779946304</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E10" t="n">
-        <v>78.32528441223727</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
         <v>51.24678656800311</v>
@@ -4962,52 +4962,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>825.1371474485136</v>
+        <v>1543.454120747039</v>
       </c>
       <c r="V10" t="n">
-        <v>825.1371474485136</v>
+        <v>1288.769632541152</v>
       </c>
       <c r="W10" t="n">
-        <v>825.1371474485136</v>
+        <v>999.352462504191</v>
       </c>
       <c r="X10" t="n">
-        <v>597.1475965504962</v>
+        <v>771.3629116061736</v>
       </c>
       <c r="Y10" t="n">
-        <v>376.3550174069661</v>
+        <v>550.5703324626435</v>
       </c>
     </row>
     <row r="11">
@@ -5017,70 +5017,70 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168627</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362702</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
         <v>3094.51519859181</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811333</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532264</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1628.786163100837</v>
       </c>
       <c r="W13" t="n">
-        <v>1360.39208240939</v>
+        <v>1339.368993063876</v>
       </c>
       <c r="X13" t="n">
-        <v>1132.402531511373</v>
+        <v>1111.379442165859</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.402531511373</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5509,58 +5509,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>95.58405025273902</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M18" t="n">
-        <v>692.9625378792909</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>1320.560501433898</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1872.470231673185</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>719.5738700011939</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>550.637687073287</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5709,16 +5709,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1639.421634909942</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1350.004464872981</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1122.014913974964</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>901.2223348314336</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5770,7 +5770,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5840,19 +5840,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5977,16 +5977,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5998,10 +5998,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2338.476105524075</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6220,55 +6220,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2092.798483612593</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>847.644273983533</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2341.482060890433</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510509</v>
+        <v>2052.406834234631</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304622</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W28" t="n">
-        <v>1647.011051783227</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6502,10 +6502,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>558.0193492433381</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C31" t="n">
-        <v>558.0193492433381</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D31" t="n">
-        <v>407.9027098310023</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2021.626829013775</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U31" t="n">
-        <v>1732.551602357973</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V31" t="n">
-        <v>1477.867114152086</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W31" t="n">
-        <v>1188.449944115125</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X31" t="n">
-        <v>960.4603932171079</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y31" t="n">
-        <v>739.6678140735778</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="32">
@@ -6688,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>411.1294017454277</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,10 +6949,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7022,19 +7022,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>716.6687843969303</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>733.4550657171305</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>564.5188827892237</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>414.4022433768879</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>266.4891497944948</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487568</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1363.885660588918</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1135.8961096909</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>915.1035305473703</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7168,28 +7168,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7265,7 +7265,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>779.6143379232836</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1688.385853854707</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1398.968683817746</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1182.055381897053</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>961.2628027535234</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7402,31 +7402,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7490,28 +7490,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>251.562654109227</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>746.8882603249857</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>1344.266747951538</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2264.108249235165</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>2009.423761029278</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1720.006590992317</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,55 +7782,55 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>870.3164745246296</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C46" t="n">
-        <v>701.3802915967227</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D46" t="n">
-        <v>551.263652184387</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E46" t="n">
-        <v>403.3505586019938</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F46" t="n">
-        <v>256.4606111040835</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
         <v>2264.108249235165</v>
@@ -7839,19 +7839,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1870.758369404391</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.073881198504</v>
       </c>
       <c r="W46" t="n">
-        <v>1500.747069396417</v>
+        <v>1326.656711161544</v>
       </c>
       <c r="X46" t="n">
-        <v>1272.757518498399</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.964939354869</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
   </sheetData>
@@ -8060,10 +8060,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>224.3355197601778</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>240.4465442417435</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>168.7434581780645</v>
       </c>
       <c r="L6" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>186.5911984019042</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>54.95314511566539</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9393975111053</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>12.10766347585272</v>
       </c>
       <c r="W13" t="n">
-        <v>147.5715612194348</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>116.6691671648112</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23712,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>34.97276993489146</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>137.2878198583897</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>112.979237864359</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>211.5151132204102</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>43.72409101823362</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>65.54986409393018</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>139.9994244361424</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>10.96548648755163</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>9.000252501566422</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>85.77246603528393</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>114.1735436840662</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>651816.7194021282</v>
+        <v>651816.7194021281</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>651816.7194021282</v>
+        <v>651816.7194021281</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>651816.7194021282</v>
+        <v>651816.7194021281</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>651816.7194021282</v>
+        <v>651816.7194021281</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710696</v>
+        <v>779989.6813710695</v>
       </c>
       <c r="C2" t="n">
         <v>779989.6813710695</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710696</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="G2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="H2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055062</v>
       </c>
       <c r="I2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="J2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="K2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="L2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="M2" t="n">
-        <v>766789.2697055056</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="N2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.2697055056</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="P2" t="n">
         <v>766789.2697055059</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245459</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099828</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="C4" t="n">
         <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707335</v>
+        <v>6897.424496707279</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707351</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707419</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="H4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="K4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="M4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="P4" t="n">
         <v>6897.424496707361</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-559609.6014763197</v>
+        <v>-559609.6014763201</v>
       </c>
       <c r="C6" t="n">
         <v>555142.1820995999</v>
       </c>
       <c r="D6" t="n">
-        <v>555142.1820995999</v>
+        <v>555142.1820996001</v>
       </c>
       <c r="E6" t="n">
-        <v>151283.8737603457</v>
+        <v>150936.4945059884</v>
       </c>
       <c r="F6" t="n">
-        <v>658769.3153848915</v>
+        <v>658421.9361305342</v>
       </c>
       <c r="G6" t="n">
-        <v>658769.3153848916</v>
+        <v>658421.9361305346</v>
       </c>
       <c r="H6" t="n">
-        <v>658769.3153848915</v>
+        <v>658421.9361305347</v>
       </c>
       <c r="I6" t="n">
-        <v>658769.3153848915</v>
+        <v>658421.9361305345</v>
       </c>
       <c r="J6" t="n">
-        <v>491164.1375749087</v>
+        <v>490816.7583205519</v>
       </c>
       <c r="K6" t="n">
-        <v>658769.3153848916</v>
+        <v>658421.9361305344</v>
       </c>
       <c r="L6" t="n">
-        <v>658769.3153848916</v>
+        <v>658421.9361305345</v>
       </c>
       <c r="M6" t="n">
-        <v>526162.0216559644</v>
+        <v>525814.6424016077</v>
       </c>
       <c r="N6" t="n">
-        <v>658769.3153848915</v>
+        <v>658421.9361305345</v>
       </c>
       <c r="O6" t="n">
-        <v>658769.3153848912</v>
+        <v>658421.9361305343</v>
       </c>
       <c r="P6" t="n">
-        <v>658769.3153848915</v>
+        <v>658421.9361305345</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26798,10 +26798,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26813,13 +26813,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241348</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,22 +26983,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>304.8496694576661</v>
       </c>
       <c r="G2" t="n">
-        <v>223.1078337316011</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27548,13 +27548,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27590,7 +27590,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27599,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>249.9746811405358</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>216.8034931298451</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>85.66528249999141</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>149.6357268260438</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>115.3258519193758</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>182.4085303613876</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27858,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>204.1874178785467</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>99.63601590239168</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>118.6133351571394</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>194.1650747870164</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28572,7 +28572,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32314,13 +32314,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>246.9596973201446</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32332,13 +32332,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>548.8125296967492</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32560,10 +32560,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>407.2177391203972</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32575,7 +32575,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,31 +32785,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>558.3177848342784</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,22 +33502,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>309.9424824173362</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>279.2419622547056</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>146.0225991093089</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949729</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>522.015880398028</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>490.1260733652758</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215493</v>
       </c>
       <c r="L6" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820405</v>
@@ -35029,16 +35029,16 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0158803980272</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>446.1502447085393</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>255.4201198419598</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35980,13 +35980,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>414.838122282419</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36208,10 +36208,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>265.0837051983789</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>426.9760727509451</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>167.3462379728918</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,22 +37390,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>140.6875824748315</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>8.181160134949948</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3718472.302653871</v>
+        <v>3720232.832956655</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.48435851</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7586268.040551851</v>
+        <v>7586268.04055185</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>102.0263762840453</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>235.8298366600195</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>56.22325617465676</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.781160222249666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>215.353270062414</v>
+        <v>281.0631827348827</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269627</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705016</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>50.98074812542835</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>171.1971464172146</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>201.3825366600137</v>
+        <v>180.9895823668589</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247055</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269627</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705016</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1296,19 +1296,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>90.69811547110008</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>92.06207933418428</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710067</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444153</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>40.67793690094114</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,16 +1587,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>240.0299798479753</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1824,10 +1824,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>251.5502284016995</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>93.4044447618827</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>26.70391688093255</v>
       </c>
     </row>
     <row r="26">
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>104.4262124629293</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>51.3656974031032</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>223.8290352905946</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>239.7247859410136</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>151.8555862333575</v>
       </c>
       <c r="U46" t="n">
-        <v>172.0109307051779</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1005.344648689697</v>
+        <v>842.8595545333294</v>
       </c>
       <c r="C2" t="n">
-        <v>636.3821317492857</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="D2" t="n">
-        <v>636.3821317492857</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E2" t="n">
-        <v>636.3821317492857</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078258</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362831</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816094</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872925</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
         <v>2055.22848474084</v>
@@ -4360,22 +4360,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.01262627016</v>
+        <v>2324.127372177913</v>
       </c>
       <c r="V2" t="n">
-        <v>1768.949738926589</v>
+        <v>1993.064484834343</v>
       </c>
       <c r="W2" t="n">
-        <v>1768.949738926589</v>
+        <v>1993.064484834343</v>
       </c>
       <c r="X2" t="n">
-        <v>1395.483980665509</v>
+        <v>1619.598726573263</v>
       </c>
       <c r="Y2" t="n">
-        <v>1005.344648689697</v>
+        <v>1229.459394597451</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
@@ -4409,22 +4409,22 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735142</v>
+        <v>298.3188265310612</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049859</v>
+        <v>932.4978103100997</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1456.147065963533</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
         <v>2422.685363568936</v>
@@ -4448,10 +4448,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="C4" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="D4" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
         <v>51.24678656800311</v>
@@ -4488,52 +4488,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1280.442797896752</v>
       </c>
       <c r="U4" t="n">
-        <v>825.137147448514</v>
+        <v>991.3244604005894</v>
       </c>
       <c r="V4" t="n">
-        <v>570.4526592426272</v>
+        <v>736.6399721947025</v>
       </c>
       <c r="W4" t="n">
-        <v>281.0354892056666</v>
+        <v>447.2228021577419</v>
       </c>
       <c r="X4" t="n">
-        <v>53.04593830764924</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1126.761759316041</v>
+        <v>1126.761759316039</v>
       </c>
       <c r="C5" t="n">
-        <v>757.7992423756293</v>
+        <v>757.7992423756275</v>
       </c>
       <c r="D5" t="n">
-        <v>757.7992423756293</v>
+        <v>757.7992423756275</v>
       </c>
       <c r="E5" t="n">
-        <v>757.7992423756293</v>
+        <v>757.7992423756275</v>
       </c>
       <c r="F5" t="n">
-        <v>346.8133375860218</v>
+        <v>750.853741626424</v>
       </c>
       <c r="G5" t="n">
-        <v>335.1489913507147</v>
+        <v>335.1489913507129</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190806</v>
+        <v>2184.059060190804</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847235</v>
+        <v>1852.996172847233</v>
       </c>
       <c r="W5" t="n">
-        <v>1500.227517577121</v>
+        <v>1500.227517577119</v>
       </c>
       <c r="X5" t="n">
-        <v>1126.761759316041</v>
+        <v>1126.761759316039</v>
       </c>
       <c r="Y5" t="n">
-        <v>1126.761759316041</v>
+        <v>1126.761759316039</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4634,40 +4634,40 @@
         <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500112</v>
       </c>
       <c r="K6" t="n">
-        <v>590.20497511435</v>
+        <v>560.1394111735138</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458217</v>
+        <v>854.8429682049853</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105042</v>
+        <v>1218.104987164205</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1605.39011576115</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878149</v>
+        <v>1937.460550937311</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4685,7 +4685,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>716.5983551657496</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>547.6621722378427</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>397.5455328255069</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>249.6324392431138</v>
+        <v>366.1231987576348</v>
       </c>
       <c r="F7" t="n">
-        <v>102.7424917452035</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312191</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020474</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693231</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096583</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4764,13 +4764,13 @@
         <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.028950037537</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>1119.039399139519</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>898.2468199959893</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1836.104914868961</v>
+        <v>1836.10491486896</v>
       </c>
       <c r="C8" t="n">
-        <v>1467.14239792855</v>
+        <v>1467.142397928548</v>
       </c>
       <c r="D8" t="n">
-        <v>1467.14239792855</v>
+        <v>1108.876699321798</v>
       </c>
       <c r="E8" t="n">
-        <v>1081.354145330305</v>
+        <v>723.0884467235535</v>
       </c>
       <c r="F8" t="n">
-        <v>670.3682405406978</v>
+        <v>312.1025419339459</v>
       </c>
       <c r="G8" t="n">
-        <v>254.6634902649866</v>
+        <v>300.4381956986389</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362813</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816077</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740838</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764995</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="W8" t="n">
-        <v>2209.570673130041</v>
+        <v>2209.57067313004</v>
       </c>
       <c r="X8" t="n">
-        <v>1836.104914868961</v>
+        <v>1836.10491486896</v>
       </c>
       <c r="Y8" t="n">
-        <v>1836.104914868961</v>
+        <v>1836.10491486896</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500112</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605188</v>
+        <v>560.1394111735138</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919906</v>
+        <v>909.2465818694955</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.935112151211</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N9" t="n">
-        <v>1730.220240748156</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2062.290675924318</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
-        <v>2309.473409756615</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>368.9218676324038</v>
+        <v>461.9138669598619</v>
       </c>
       <c r="C10" t="n">
-        <v>199.9856847044969</v>
+        <v>292.9776840319551</v>
       </c>
       <c r="D10" t="n">
-        <v>199.9856847044969</v>
+        <v>142.8610446196193</v>
       </c>
       <c r="E10" t="n">
-        <v>199.9856847044969</v>
+        <v>142.8610446196193</v>
       </c>
       <c r="F10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312191</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020474</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693231</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096583</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4995,19 +4995,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1543.454120747039</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1288.769632541152</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>999.352462504191</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X10" t="n">
-        <v>771.3629116061736</v>
+        <v>864.3549109336318</v>
       </c>
       <c r="Y10" t="n">
-        <v>550.5703324626435</v>
+        <v>643.5623317901017</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168627</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362702</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5059,34 +5059,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>929.7309773356194</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1628.786163100837</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1339.368993063876</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1111.379442165859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y13" t="n">
-        <v>1111.379442165859</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="14">
@@ -5257,34 +5257,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5296,31 +5296,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832228</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>634.9279362553159</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854707</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1434.29471405501</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134625</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5497,16 +5497,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5597,19 +5597,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578602</v>
@@ -5700,25 +5700,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5843,7 +5843,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="23">
@@ -5977,31 +5977,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="26">
@@ -6214,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2341.482060890433</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>2052.406834234631</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1797.722346028744</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1508.305175991783</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.315625093766</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6445,40 +6445,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>664.3027814695811</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>516.389687887188</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>369.4997403892776</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6691,7 +6691,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="35">
@@ -6928,19 +6928,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,34 +7162,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7499,7 +7499,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.314832085242</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.630343879355</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263526</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U46" t="n">
-        <v>1870.758369404391</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.073881198504</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W46" t="n">
-        <v>1326.656711161544</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X46" t="n">
-        <v>1098.667160263526</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y46" t="n">
-        <v>1098.667160263526</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -8060,13 +8060,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621888</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>162.0073097921343</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>240.4465442417435</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780645</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>265.030432851516</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154995</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>54.95314511566681</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.9393975111053</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154995</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>126.5688841976867</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>12.10766347585272</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>34.97276993489146</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>191.8807364711622</v>
       </c>
     </row>
     <row r="26">
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>112.979237864359</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>62.35543909864955</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>46.45968844823051</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>65.54986409393072</v>
       </c>
       <c r="U46" t="n">
-        <v>114.1735436840662</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>651816.7194021282</v>
+        <v>651816.7194021281</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>651816.7194021282</v>
+        <v>651816.7194021281</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>651816.7194021282</v>
+        <v>651816.7194021281</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>651816.7194021282</v>
+        <v>651816.7194021281</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>651816.7194021281</v>
+        <v>651816.7194021282</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>651816.7194021282</v>
+        <v>651816.7194021281</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>779989.6813710694</v>
+      </c>
+      <c r="C2" t="n">
+        <v>779989.6813710694</v>
+      </c>
+      <c r="D2" t="n">
         <v>779989.6813710695</v>
       </c>
-      <c r="C2" t="n">
-        <v>779989.6813710695</v>
-      </c>
-      <c r="D2" t="n">
-        <v>779989.6813710696</v>
-      </c>
       <c r="E2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="G2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="H2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="I2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="J2" t="n">
         <v>766789.2697055059</v>
@@ -26343,7 +26343,7 @@
         <v>766789.2697055058</v>
       </c>
       <c r="L2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="M2" t="n">
         <v>766789.2697055059</v>
@@ -26352,10 +26352,10 @@
         <v>766789.2697055059</v>
       </c>
       <c r="O2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="P2" t="n">
         <v>766789.2697055058</v>
-      </c>
-      <c r="P2" t="n">
-        <v>766789.2697055059</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245462</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="C4" t="n">
         <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707279</v>
+        <v>6897.424496707399</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707351</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="G4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="H4" t="n">
         <v>6897.424496707359</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6897.42449670736</v>
       </c>
       <c r="I4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="J4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="K4" t="n">
         <v>6897.424496707359</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.42449670736</v>
       </c>
       <c r="L4" t="n">
         <v>6897.424496707359</v>
@@ -26459,7 +26459,7 @@
         <v>6897.424496707361</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-559609.6014763201</v>
+        <v>-559609.6014763197</v>
       </c>
       <c r="C6" t="n">
+        <v>555142.1820995996</v>
+      </c>
+      <c r="D6" t="n">
         <v>555142.1820995999</v>
       </c>
-      <c r="D6" t="n">
-        <v>555142.1820996001</v>
-      </c>
       <c r="E6" t="n">
-        <v>150936.4945059884</v>
+        <v>151249.1358349095</v>
       </c>
       <c r="F6" t="n">
-        <v>658421.9361305342</v>
+        <v>658734.5774594558</v>
       </c>
       <c r="G6" t="n">
-        <v>658421.9361305346</v>
+        <v>658734.5774594557</v>
       </c>
       <c r="H6" t="n">
-        <v>658421.9361305347</v>
+        <v>658734.5774594557</v>
       </c>
       <c r="I6" t="n">
-        <v>658421.9361305345</v>
+        <v>658734.5774594557</v>
       </c>
       <c r="J6" t="n">
-        <v>490816.7583205519</v>
+        <v>491129.3996494731</v>
       </c>
       <c r="K6" t="n">
-        <v>658421.9361305344</v>
+        <v>658734.5774594557</v>
       </c>
       <c r="L6" t="n">
-        <v>658421.9361305345</v>
+        <v>658734.5774594556</v>
       </c>
       <c r="M6" t="n">
-        <v>525814.6424016077</v>
+        <v>526127.283730529</v>
       </c>
       <c r="N6" t="n">
-        <v>658421.9361305345</v>
+        <v>658734.5774594558</v>
       </c>
       <c r="O6" t="n">
-        <v>658421.9361305343</v>
+        <v>658734.5774594558</v>
       </c>
       <c r="P6" t="n">
-        <v>658421.9361305345</v>
+        <v>658734.5774594557</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.064892117539</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175388</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175388</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,16 +26792,16 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.064892117539</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241348</v>
+        <v>433.910608224135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>304.8496694576661</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>15.21541346844251</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27551,10 +27551,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27590,7 +27590,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>164.5254398225552</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>216.8034931298451</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>85.66528249999141</v>
+        <v>19.9553698275227</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247055</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>115.3258519193758</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>101.5575724195737</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>115.3258519193764</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>99.63601590239168</v>
+        <v>120.0289701955465</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28016,19 +28016,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>54.72293255183116</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>101.5575724195737</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28067,7 +28067,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>194.1650747870164</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>8.769894134013742e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040587</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H4" t="n">
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31214,16 +31214,16 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759584</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.19689343106956</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181058</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336176</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491898</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857141</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767378</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730001</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342221</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166591</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190642</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147049</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745093</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436492</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>189.817847557584</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177241</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040585</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762069</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405672</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378623</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.318536019979</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000169</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231071</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335768</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.6942511682318</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227906</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154671</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169136</v>
       </c>
       <c r="Q7" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759582</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523477</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069558</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024981</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181058</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336176</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491898</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857141</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767378</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730001</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342221</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166591</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190642</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147049</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745093</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436492</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.817847557584</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177241</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040585</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762069</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405672</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378623</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.318536019979</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000169</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231071</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335768</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.6942511682318</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227906</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154671</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169136</v>
       </c>
       <c r="Q10" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759582</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523477</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069558</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024981</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,16 +31843,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>398.7616643558013</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32317,10 +32317,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L18" t="n">
-        <v>246.9596973201446</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32332,7 +32332,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32563,10 +32563,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34219,31 +34219,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.657975422505</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939898</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091737</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434847</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>528.9386420741747</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.4246819961229</v>
       </c>
       <c r="P3" t="n">
-        <v>490.1260733652758</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>24.5838886097709</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870591</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225035</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407335</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067505</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457273</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376312</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949724</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637946</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402555</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939893</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091734</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215493</v>
+        <v>451.0527332560633</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.68036063785</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820402</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928737</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961228</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>514.709961975048</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870588</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.0112915831068</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.6644876295068</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805397</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225035</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407335</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067505</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457273</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376312</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949724</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637946</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402555</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939893</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091734</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>451.0527332560633</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>352.6335057535168</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820402</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928737</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961228</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235321</v>
       </c>
       <c r="Q9" t="n">
-        <v>255.4201198419598</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870588</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.0112915831068</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.6644876295068</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805397</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,13 +35494,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>256.1654199113569</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35965,10 +35965,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L18" t="n">
-        <v>108.4053175402704</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35980,7 +35980,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36211,10 +36211,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37560,7 +37560,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
